--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_10_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_10_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>705199.6014665382</v>
+        <v>571841.0260783819</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1278033.348616488</v>
+        <v>1131408.985508542</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23525779.16017342</v>
+        <v>23404002.81660419</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4737910.413927134</v>
+        <v>4790779.549795536</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>13.18456318129115</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>14.96885011499904</v>
@@ -1390,10 +1390,10 @@
         <v>14.96885011499904</v>
       </c>
       <c r="I11" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>14.96885011499904</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1463,52 +1463,52 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>13.18456318129115</v>
       </c>
-      <c r="H12" t="n">
+      <c r="T12" t="n">
         <v>14.96885011499904</v>
       </c>
-      <c r="I12" t="n">
+      <c r="U12" t="n">
         <v>14.96885011499904</v>
       </c>
-      <c r="J12" t="n">
+      <c r="V12" t="n">
         <v>14.96885011499904</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>22.85584894357549</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,16 +1621,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="H14" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>13.18456318129115</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1691,25 +1691,25 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>22.85584894357548</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="G15" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="H15" t="n">
-        <v>13.18456318129115</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="I15" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>14.96885011499904</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1846,28 +1846,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="G17" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>25.75359370674563</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>29.23886660620531</v>
+        <v>17.42191669726542</v>
       </c>
       <c r="J18" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1967,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,13 +1979,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="E20" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>25.75359370674562</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="R20" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="S21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="T21" t="n">
-        <v>29.23886660620531</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="V21" t="n">
-        <v>29.23886660620531</v>
+        <v>39.95092127527401</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.224589128737045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="H23" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>74.17977014942213</v>
       </c>
       <c r="W23" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>53.13548445656517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2453,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="W24" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="X24" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>53.13548445656517</v>
+        <v>75.70608231735571</v>
       </c>
     </row>
     <row r="25">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="G26" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>53.13548445656518</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2642,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>53.13548445656516</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>60.32639016412941</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
     </row>
     <row r="28">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53.13548445656517</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>53.13548445656518</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>60.32639016412941</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="F30" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,19 +2927,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
     </row>
     <row r="31">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>74.17977014942213</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>53.13548445656518</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="C33" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="D33" t="n">
-        <v>30.60647987855659</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>60.32639016412941</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>66.6819173051269</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
     </row>
     <row r="34">
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>53.49735412383575</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>53.49735412383573</v>
       </c>
       <c r="W36" t="n">
-        <v>39.95092127527401</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="X36" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235667</v>
       </c>
     </row>
     <row r="37">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>45.35754004913036</v>
+        <v>43.82606836155139</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>45.35754004913036</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.95092127527401</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>43.82606836155139</v>
       </c>
     </row>
     <row r="40">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>26.73099602985288</v>
       </c>
       <c r="C41" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>27.38189074981954</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
     </row>
     <row r="42">
@@ -3818,31 +3818,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>26.73099602985288</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>4.852886171810969</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3881,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>27.38189074981954</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="G44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>26.73099602985288</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,28 +4100,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R45" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="S45" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="V45" t="n">
-        <v>27.38189074981954</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>31.0875235579241</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>4.2019914518443</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>59.87540045999617</v>
+        <v>46.55765987283339</v>
       </c>
       <c r="C11" t="n">
-        <v>59.87540045999617</v>
+        <v>46.55765987283339</v>
       </c>
       <c r="D11" t="n">
-        <v>59.87540045999617</v>
+        <v>46.55765987283339</v>
       </c>
       <c r="E11" t="n">
-        <v>59.87540045999617</v>
+        <v>46.55765987283339</v>
       </c>
       <c r="F11" t="n">
-        <v>44.75534983878502</v>
+        <v>46.55765987283339</v>
       </c>
       <c r="G11" t="n">
-        <v>29.63529921757386</v>
+        <v>31.43760925162223</v>
       </c>
       <c r="H11" t="n">
-        <v>14.5152485963627</v>
+        <v>16.31755863041108</v>
       </c>
       <c r="I11" t="n">
-        <v>1.197508009199924</v>
+        <v>16.31755863041108</v>
       </c>
       <c r="J11" t="n">
         <v>1.197508009199924</v>
@@ -5053,7 +5053,7 @@
         <v>30.83583123689803</v>
       </c>
       <c r="N11" t="n">
-        <v>31.10175243980926</v>
+        <v>45.65499285074709</v>
       </c>
       <c r="O11" t="n">
         <v>45.92091405365831</v>
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="C12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="D12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="E12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="F12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="G12" t="n">
-        <v>46.55765987283339</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="H12" t="n">
-        <v>31.43760925162223</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="I12" t="n">
-        <v>16.31755863041108</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="J12" t="n">
         <v>1.197508009199924</v>
@@ -5147,25 +5147,25 @@
         <v>59.87540045999617</v>
       </c>
       <c r="S12" t="n">
-        <v>59.87540045999617</v>
+        <v>46.55765987283339</v>
       </c>
       <c r="T12" t="n">
-        <v>59.87540045999617</v>
+        <v>31.43760925162223</v>
       </c>
       <c r="U12" t="n">
-        <v>59.87540045999617</v>
+        <v>16.31755863041108</v>
       </c>
       <c r="V12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="W12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="X12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
       <c r="Y12" t="n">
-        <v>59.87540045999617</v>
+        <v>1.197508009199924</v>
       </c>
     </row>
     <row r="13">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.87540045999617</v>
+        <v>77.58478618265241</v>
       </c>
       <c r="C14" t="n">
-        <v>59.87540045999617</v>
+        <v>54.4980700780307</v>
       </c>
       <c r="D14" t="n">
-        <v>59.87540045999617</v>
+        <v>28.28699366497246</v>
       </c>
       <c r="E14" t="n">
-        <v>59.87540045999617</v>
+        <v>28.28699366497246</v>
       </c>
       <c r="F14" t="n">
-        <v>59.87540045999617</v>
+        <v>28.28699366497246</v>
       </c>
       <c r="G14" t="n">
-        <v>44.75534983878502</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="H14" t="n">
-        <v>29.63529921757386</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="I14" t="n">
-        <v>14.5152485963627</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="J14" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="K14" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="L14" t="n">
-        <v>16.01666962304898</v>
+        <v>12.77294821205762</v>
       </c>
       <c r="M14" t="n">
-        <v>16.28259082596021</v>
+        <v>38.462424204496</v>
       </c>
       <c r="N14" t="n">
-        <v>31.10175243980926</v>
+        <v>64.15190019693439</v>
       </c>
       <c r="O14" t="n">
-        <v>45.92091405365831</v>
+        <v>89.84137618937278</v>
       </c>
       <c r="P14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="Q14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="R14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="S14" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="T14" t="n">
-        <v>59.87540045999617</v>
+        <v>77.58478618265241</v>
       </c>
       <c r="U14" t="n">
-        <v>59.87540045999617</v>
+        <v>77.58478618265241</v>
       </c>
       <c r="V14" t="n">
-        <v>59.87540045999617</v>
+        <v>77.58478618265241</v>
       </c>
       <c r="W14" t="n">
-        <v>59.87540045999617</v>
+        <v>77.58478618265241</v>
       </c>
       <c r="X14" t="n">
-        <v>59.87540045999617</v>
+        <v>77.58478618265241</v>
       </c>
       <c r="Y14" t="n">
-        <v>59.87540045999617</v>
+        <v>77.58478618265241</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="C15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="D15" t="n">
-        <v>59.87540045999617</v>
+        <v>80.70914649108894</v>
       </c>
       <c r="E15" t="n">
-        <v>59.87540045999617</v>
+        <v>80.70914649108894</v>
       </c>
       <c r="F15" t="n">
-        <v>59.87540045999617</v>
+        <v>54.4980700780307</v>
       </c>
       <c r="G15" t="n">
-        <v>44.75534983878502</v>
+        <v>28.28699366497246</v>
       </c>
       <c r="H15" t="n">
-        <v>31.43760925162223</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="I15" t="n">
-        <v>16.31755863041108</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="J15" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="K15" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="L15" t="n">
-        <v>15.41791561844901</v>
+        <v>26.72743461839548</v>
       </c>
       <c r="M15" t="n">
-        <v>30.23707723229806</v>
+        <v>52.41691061083387</v>
       </c>
       <c r="N15" t="n">
-        <v>45.05623884614712</v>
+        <v>78.10638660327226</v>
       </c>
       <c r="O15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="P15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="Q15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="R15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="S15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="T15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="U15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="V15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="W15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="X15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
       <c r="Y15" t="n">
-        <v>59.87540045999617</v>
+        <v>103.7958625957106</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="C16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="D16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="E16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="F16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="G16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="H16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="I16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="J16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="K16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="L16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="M16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="N16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="O16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="P16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="R16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="S16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="T16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="U16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="V16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="W16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="X16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.197508009199924</v>
+        <v>2.075917251914213</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="C17" t="n">
-        <v>116.9554664248212</v>
+        <v>141.0756942619012</v>
       </c>
       <c r="D17" t="n">
-        <v>116.9554664248212</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="E17" t="n">
-        <v>116.9554664248212</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="F17" t="n">
-        <v>116.9554664248212</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G17" t="n">
-        <v>90.94173540790645</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H17" t="n">
-        <v>61.40752671476977</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I17" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K17" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L17" t="n">
-        <v>31.28558726863968</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M17" t="n">
-        <v>60.23206520878293</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N17" t="n">
-        <v>88.00898848467797</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O17" t="n">
-        <v>116.9554664248212</v>
+        <v>167.4756737901836</v>
       </c>
       <c r="P17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="S17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="T17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="U17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="V17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="W17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="X17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Y17" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116.9554664248212</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="C18" t="n">
-        <v>116.9554664248212</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="D18" t="n">
-        <v>116.9554664248212</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="E18" t="n">
-        <v>116.9554664248212</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="F18" t="n">
-        <v>116.9554664248212</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="G18" t="n">
-        <v>90.94173540790645</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="H18" t="n">
-        <v>61.40752671476977</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="I18" t="n">
-        <v>31.8733180216331</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K18" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L18" t="n">
-        <v>30.11603260439146</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M18" t="n">
-        <v>59.06251054453472</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N18" t="n">
-        <v>88.00898848467797</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O18" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P18" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q18" t="n">
-        <v>116.9554664248212</v>
+        <v>158.6735899157047</v>
       </c>
       <c r="R18" t="n">
-        <v>116.9554664248212</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="S18" t="n">
-        <v>116.9554664248212</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="T18" t="n">
-        <v>116.9554664248212</v>
+        <v>112.8578928963811</v>
       </c>
       <c r="U18" t="n">
-        <v>116.9554664248212</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="V18" t="n">
-        <v>116.9554664248212</v>
+        <v>67.04219587705748</v>
       </c>
       <c r="W18" t="n">
-        <v>116.9554664248212</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="X18" t="n">
-        <v>116.9554664248212</v>
+        <v>21.22649885773388</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.9554664248212</v>
+        <v>21.22649885773388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.88704903854787</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="C20" t="n">
-        <v>57.88704903854787</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="D20" t="n">
-        <v>57.88704903854787</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="E20" t="n">
-        <v>28.3528403454112</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="F20" t="n">
-        <v>2.339109328496424</v>
+        <v>49.44430022325403</v>
       </c>
       <c r="G20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K20" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L20" t="n">
-        <v>31.28558726863968</v>
+        <v>48.53256785256949</v>
       </c>
       <c r="M20" t="n">
-        <v>45.10802413819685</v>
+        <v>93.43653250120855</v>
       </c>
       <c r="N20" t="n">
-        <v>74.05450207834011</v>
+        <v>138.3404971498476</v>
       </c>
       <c r="O20" t="n">
-        <v>103.0009800184834</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="P20" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.42125773168455</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="R20" t="n">
-        <v>57.88704903854787</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="S20" t="n">
-        <v>57.88704903854787</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="T20" t="n">
-        <v>57.88704903854787</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="U20" t="n">
-        <v>57.88704903854787</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="V20" t="n">
-        <v>57.88704903854787</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="W20" t="n">
-        <v>57.88704903854787</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="X20" t="n">
-        <v>57.88704903854787</v>
+        <v>95.25999724257764</v>
       </c>
       <c r="Y20" t="n">
-        <v>57.88704903854787</v>
+        <v>95.25999724257764</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L21" t="n">
-        <v>30.11603260439146</v>
+        <v>17.84901081317951</v>
       </c>
       <c r="M21" t="n">
-        <v>59.06251054453472</v>
+        <v>62.75297546181857</v>
       </c>
       <c r="N21" t="n">
-        <v>88.00898848467797</v>
+        <v>107.6569401104576</v>
       </c>
       <c r="O21" t="n">
-        <v>116.9554664248212</v>
+        <v>152.5609047590967</v>
       </c>
       <c r="P21" t="n">
-        <v>116.9554664248212</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.19889614400448</v>
+        <v>181.4301601965215</v>
       </c>
       <c r="R21" t="n">
-        <v>94.19889614400448</v>
+        <v>135.6144631771978</v>
       </c>
       <c r="S21" t="n">
-        <v>64.6646874508678</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="T21" t="n">
-        <v>35.13047875773113</v>
+        <v>89.79876615787424</v>
       </c>
       <c r="U21" t="n">
-        <v>35.13047875773113</v>
+        <v>43.98306913855064</v>
       </c>
       <c r="V21" t="n">
-        <v>5.596270064594449</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W21" t="n">
-        <v>5.596270064594449</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X21" t="n">
-        <v>5.596270064594449</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="C22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="D22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="E22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="F22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="G22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="H22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="I22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="J22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="K22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="L22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="M22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="N22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="O22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="P22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="R22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="S22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="T22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="U22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="V22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="W22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="X22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.339109328496424</v>
+        <v>3.628603203930429</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="C23" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="D23" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="E23" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="F23" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="G23" t="n">
-        <v>126.6976064941999</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H23" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I23" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J23" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K23" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L23" t="n">
-        <v>48.1816954627155</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M23" t="n">
-        <v>107.9048217252036</v>
+        <v>138.9717998747207</v>
       </c>
       <c r="N23" t="n">
-        <v>167.6279479876917</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O23" t="n">
-        <v>227.3510742501798</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P23" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q23" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="R23" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="S23" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="T23" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="U23" t="n">
-        <v>241.3055606565176</v>
+        <v>157.4563375619317</v>
       </c>
       <c r="V23" t="n">
-        <v>241.3055606565176</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="W23" t="n">
-        <v>180.3698130159829</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="X23" t="n">
-        <v>180.3698130159829</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="Y23" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493967</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C24" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D24" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E24" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F24" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G24" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H24" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I24" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J24" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K24" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L24" t="n">
-        <v>19.04651882237941</v>
+        <v>81.0055080795706</v>
       </c>
       <c r="M24" t="n">
-        <v>78.76964508486752</v>
+        <v>155.9545295737528</v>
       </c>
       <c r="N24" t="n">
-        <v>138.4927713473556</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="O24" t="n">
-        <v>198.2158976098438</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="P24" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q24" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R24" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S24" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T24" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U24" t="n">
-        <v>241.3055606565176</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V24" t="n">
-        <v>241.3055606565176</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="W24" t="n">
-        <v>180.3698130159829</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="X24" t="n">
-        <v>119.4340653754481</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="Y24" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.6976064941999</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="C26" t="n">
-        <v>126.6976064941999</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="D26" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="E26" t="n">
-        <v>126.6976064941999</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="F26" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K26" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L26" t="n">
-        <v>62.79240300828037</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M26" t="n">
-        <v>122.5155292707685</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N26" t="n">
-        <v>182.2386555332566</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O26" t="n">
-        <v>227.3510742501798</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P26" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q26" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R26" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="S26" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="T26" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="U26" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="V26" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="W26" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="X26" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y26" t="n">
-        <v>187.6333541347346</v>
+        <v>235.4688572440421</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>180.3698130159829</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="C27" t="n">
-        <v>180.3698130159829</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="D27" t="n">
-        <v>180.3698130159829</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="E27" t="n">
-        <v>119.4340653754481</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="F27" t="n">
-        <v>58.49831773491334</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="G27" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="H27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J27" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K27" t="n">
-        <v>33.09180516138317</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L27" t="n">
-        <v>62.1361818690533</v>
+        <v>81.0055080795706</v>
       </c>
       <c r="M27" t="n">
-        <v>121.8593081315414</v>
+        <v>131.7637476688453</v>
       </c>
       <c r="N27" t="n">
-        <v>181.5824343940295</v>
+        <v>198.9288298350974</v>
       </c>
       <c r="O27" t="n">
-        <v>241.3055606565176</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="P27" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q27" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R27" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S27" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T27" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U27" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="V27" t="n">
-        <v>180.3698130159829</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="W27" t="n">
-        <v>180.3698130159829</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="X27" t="n">
-        <v>180.3698130159829</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.3698130159829</v>
+        <v>82.52727680493967</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>126.6976064941999</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C29" t="n">
-        <v>126.6976064941999</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D29" t="n">
-        <v>126.6976064941999</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E29" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K29" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L29" t="n">
-        <v>48.18169546271545</v>
+        <v>64.02277838053841</v>
       </c>
       <c r="M29" t="n">
-        <v>107.9048217252036</v>
+        <v>138.9717998747205</v>
       </c>
       <c r="N29" t="n">
-        <v>167.6279479876917</v>
+        <v>213.9208213689027</v>
       </c>
       <c r="O29" t="n">
-        <v>227.3510742501798</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P29" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q29" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R29" t="n">
-        <v>241.3055606565176</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="S29" t="n">
-        <v>241.3055606565176</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="T29" t="n">
-        <v>241.3055606565176</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="U29" t="n">
-        <v>241.3055606565176</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="V29" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W29" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X29" t="n">
-        <v>241.3055606565176</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y29" t="n">
-        <v>180.3698130159829</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>187.6333541347346</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="C30" t="n">
-        <v>187.6333541347346</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="D30" t="n">
-        <v>187.6333541347346</v>
+        <v>73.41195861076918</v>
       </c>
       <c r="E30" t="n">
-        <v>126.6976064941999</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F30" t="n">
-        <v>65.7618588536651</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G30" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H30" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I30" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J30" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K30" t="n">
-        <v>33.09180516138317</v>
+        <v>34.32218053364124</v>
       </c>
       <c r="L30" t="n">
-        <v>47.31221277063226</v>
+        <v>85.76120411480645</v>
       </c>
       <c r="M30" t="n">
-        <v>92.21617741927132</v>
+        <v>160.7102256089886</v>
       </c>
       <c r="N30" t="n">
-        <v>151.9393036817594</v>
+        <v>227.8753077752407</v>
       </c>
       <c r="O30" t="n">
-        <v>211.6624299442475</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="P30" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q30" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R30" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S30" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T30" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U30" t="n">
-        <v>241.3055606565176</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="V30" t="n">
-        <v>241.3055606565176</v>
+        <v>226.3535390498716</v>
       </c>
       <c r="W30" t="n">
-        <v>241.3055606565176</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="X30" t="n">
-        <v>241.3055606565176</v>
+        <v>149.8827488303204</v>
       </c>
       <c r="Y30" t="n">
-        <v>241.3055606565176</v>
+        <v>73.41195861076918</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.826111213130353</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="C32" t="n">
-        <v>4.826111213130353</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="D32" t="n">
-        <v>4.826111213130353</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="E32" t="n">
-        <v>4.826111213130353</v>
+        <v>158.9980670244909</v>
       </c>
       <c r="F32" t="n">
-        <v>4.826111213130353</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="G32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K32" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L32" t="n">
-        <v>62.79240300828037</v>
+        <v>64.02277838053847</v>
       </c>
       <c r="M32" t="n">
-        <v>122.5155292707685</v>
+        <v>138.9717998747206</v>
       </c>
       <c r="N32" t="n">
-        <v>181.5824343940295</v>
+        <v>213.9208213689028</v>
       </c>
       <c r="O32" t="n">
-        <v>241.3055606565176</v>
+        <v>288.869842863085</v>
       </c>
       <c r="P32" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q32" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="R32" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="S32" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="T32" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="U32" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="V32" t="n">
-        <v>241.3055606565176</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="W32" t="n">
-        <v>187.6333541347346</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="X32" t="n">
-        <v>126.6976064941999</v>
+        <v>233.9271277814829</v>
       </c>
       <c r="Y32" t="n">
-        <v>65.7618588536651</v>
+        <v>233.9271277814829</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96.67749509463137</v>
+        <v>82.52727680493967</v>
       </c>
       <c r="C33" t="n">
-        <v>35.74174745409661</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J33" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K33" t="n">
-        <v>33.09180516138317</v>
+        <v>34.32218053364127</v>
       </c>
       <c r="L33" t="n">
-        <v>92.81493142387129</v>
+        <v>109.2712020278234</v>
       </c>
       <c r="M33" t="n">
-        <v>152.5380576863594</v>
+        <v>184.2202235220056</v>
       </c>
       <c r="N33" t="n">
-        <v>212.2611839488475</v>
+        <v>251.3853056882577</v>
       </c>
       <c r="O33" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="P33" t="n">
-        <v>241.3055606565176</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.5489903757009</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="R33" t="n">
-        <v>218.5489903757009</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="S33" t="n">
-        <v>218.5489903757009</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="T33" t="n">
-        <v>218.5489903757009</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="U33" t="n">
-        <v>218.5489903757009</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="V33" t="n">
-        <v>218.5489903757009</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="W33" t="n">
-        <v>157.6132427351661</v>
+        <v>302.8243292694228</v>
       </c>
       <c r="X33" t="n">
-        <v>157.6132427351661</v>
+        <v>235.4688572440421</v>
       </c>
       <c r="Y33" t="n">
-        <v>157.6132427351661</v>
+        <v>158.9980670244909</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="C34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="D34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="E34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="F34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="G34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="H34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="I34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="J34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="K34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="L34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="M34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="N34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="O34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="P34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="R34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="S34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="T34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="U34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="V34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="W34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="X34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.826111213130353</v>
+        <v>6.056486585388456</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.98306913855064</v>
+        <v>181.5981892110866</v>
       </c>
       <c r="C35" t="n">
-        <v>43.98306913855064</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="D35" t="n">
-        <v>43.98306913855064</v>
+        <v>66.2097181745286</v>
       </c>
       <c r="E35" t="n">
-        <v>43.98306913855064</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="F35" t="n">
-        <v>43.98306913855064</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="G35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="H35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="I35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="J35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="K35" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="L35" t="n">
-        <v>48.53256785256949</v>
+        <v>48.60486276208951</v>
       </c>
       <c r="M35" t="n">
-        <v>93.43653250120855</v>
+        <v>108.7347226424226</v>
       </c>
       <c r="N35" t="n">
-        <v>138.3404971498476</v>
+        <v>168.8645825227557</v>
       </c>
       <c r="O35" t="n">
-        <v>167.4756737901836</v>
+        <v>228.9944424030888</v>
       </c>
       <c r="P35" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="Q35" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="R35" t="n">
-        <v>181.4301601965215</v>
+        <v>181.5981892110866</v>
       </c>
       <c r="S35" t="n">
-        <v>181.4301601965215</v>
+        <v>181.5981892110866</v>
       </c>
       <c r="T35" t="n">
-        <v>181.4301601965215</v>
+        <v>181.5981892110866</v>
       </c>
       <c r="U35" t="n">
-        <v>181.4301601965215</v>
+        <v>181.5981892110866</v>
       </c>
       <c r="V35" t="n">
-        <v>181.4301601965215</v>
+        <v>181.5981892110866</v>
       </c>
       <c r="W35" t="n">
-        <v>135.6144631771978</v>
+        <v>181.5981892110866</v>
       </c>
       <c r="X35" t="n">
-        <v>89.79876615787424</v>
+        <v>181.5981892110866</v>
       </c>
       <c r="Y35" t="n">
-        <v>43.98306913855064</v>
+        <v>181.5981892110866</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.44430022325403</v>
+        <v>66.2097181745286</v>
       </c>
       <c r="C36" t="n">
-        <v>49.44430022325403</v>
+        <v>66.2097181745286</v>
       </c>
       <c r="D36" t="n">
-        <v>49.44430022325403</v>
+        <v>66.2097181745286</v>
       </c>
       <c r="E36" t="n">
-        <v>49.44430022325403</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="F36" t="n">
-        <v>49.44430022325403</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="G36" t="n">
-        <v>49.44430022325403</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="H36" t="n">
-        <v>49.44430022325403</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="I36" t="n">
-        <v>49.44430022325403</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="J36" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="K36" t="n">
-        <v>31.89429715218325</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="L36" t="n">
-        <v>62.67575295910007</v>
+        <v>48.83876645997816</v>
       </c>
       <c r="M36" t="n">
-        <v>107.5797176077391</v>
+        <v>93.74273110861722</v>
       </c>
       <c r="N36" t="n">
-        <v>152.4836822563782</v>
+        <v>153.8725909889503</v>
       </c>
       <c r="O36" t="n">
-        <v>181.4301601965215</v>
+        <v>182.8190689290936</v>
       </c>
       <c r="P36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="Q36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="R36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="S36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="T36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="U36" t="n">
-        <v>181.4301601965215</v>
+        <v>242.9489288094267</v>
       </c>
       <c r="V36" t="n">
-        <v>181.4301601965215</v>
+        <v>188.9111973712087</v>
       </c>
       <c r="W36" t="n">
-        <v>141.0756942619012</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="X36" t="n">
-        <v>95.25999724257764</v>
+        <v>127.5604577728687</v>
       </c>
       <c r="Y36" t="n">
-        <v>49.44430022325403</v>
+        <v>66.2097181745286</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="C37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="D37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="E37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="F37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="G37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="H37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="I37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="J37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="K37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="L37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="M37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="N37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="O37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="P37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="R37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="S37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="T37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="U37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="V37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="W37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="X37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.628603203930429</v>
+        <v>4.858978576188533</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>95.25999724257764</v>
+        <v>98.5090390607262</v>
       </c>
       <c r="C38" t="n">
-        <v>49.44430022325403</v>
+        <v>98.5090390607262</v>
       </c>
       <c r="D38" t="n">
-        <v>3.628603203930429</v>
+        <v>54.24028313996722</v>
       </c>
       <c r="E38" t="n">
-        <v>3.628603203930429</v>
+        <v>54.24028313996722</v>
       </c>
       <c r="F38" t="n">
-        <v>3.628603203930429</v>
+        <v>54.24028313996722</v>
       </c>
       <c r="G38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="H38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="I38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="J38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="K38" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="L38" t="n">
-        <v>48.53256785256949</v>
+        <v>53.240114835218</v>
       </c>
       <c r="M38" t="n">
-        <v>93.43653250120855</v>
+        <v>102.4996603369618</v>
       </c>
       <c r="N38" t="n">
-        <v>138.3404971498476</v>
+        <v>151.7592058387055</v>
       </c>
       <c r="O38" t="n">
-        <v>167.4756737901836</v>
+        <v>185.0739802673743</v>
       </c>
       <c r="P38" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="Q38" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="R38" t="n">
-        <v>135.6144631771978</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="S38" t="n">
-        <v>135.6144631771978</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="T38" t="n">
-        <v>135.6144631771978</v>
+        <v>148.7687528672192</v>
       </c>
       <c r="U38" t="n">
-        <v>135.6144631771978</v>
+        <v>98.5090390607262</v>
       </c>
       <c r="V38" t="n">
-        <v>135.6144631771978</v>
+        <v>98.5090390607262</v>
       </c>
       <c r="W38" t="n">
-        <v>135.6144631771978</v>
+        <v>98.5090390607262</v>
       </c>
       <c r="X38" t="n">
-        <v>135.6144631771978</v>
+        <v>98.5090390607262</v>
       </c>
       <c r="Y38" t="n">
-        <v>135.6144631771978</v>
+        <v>98.5090390607262</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>141.0756942619012</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="C39" t="n">
-        <v>95.25999724257764</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="D39" t="n">
-        <v>95.25999724257764</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="E39" t="n">
-        <v>49.44430022325403</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="F39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="G39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="H39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="I39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="J39" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="K39" t="n">
-        <v>31.89429715218325</v>
+        <v>32.24626328172706</v>
       </c>
       <c r="L39" t="n">
-        <v>46.71826625060427</v>
+        <v>55.60541102158558</v>
       </c>
       <c r="M39" t="n">
-        <v>91.62223089924333</v>
+        <v>100.5093756702246</v>
       </c>
       <c r="N39" t="n">
-        <v>136.5261955478824</v>
+        <v>149.7689211719684</v>
       </c>
       <c r="O39" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="P39" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="Q39" t="n">
-        <v>181.4301601965215</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="R39" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="S39" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="T39" t="n">
-        <v>141.0756942619012</v>
+        <v>199.0284666737122</v>
       </c>
       <c r="U39" t="n">
-        <v>141.0756942619012</v>
+        <v>148.7687528672192</v>
       </c>
       <c r="V39" t="n">
-        <v>141.0756942619012</v>
+        <v>98.5090390607262</v>
       </c>
       <c r="W39" t="n">
-        <v>141.0756942619012</v>
+        <v>48.24932525423322</v>
       </c>
       <c r="X39" t="n">
-        <v>141.0756942619012</v>
+        <v>48.24932525423322</v>
       </c>
       <c r="Y39" t="n">
-        <v>141.0756942619012</v>
+        <v>3.980569333474243</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="C40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="D40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="E40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="F40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="G40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="H40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="I40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="J40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="K40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="L40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="M40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="N40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="O40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="P40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="R40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="S40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="T40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="U40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="V40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="W40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="X40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.628603203930429</v>
+        <v>3.980569333474243</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>92.94855528429832</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="C41" t="n">
-        <v>61.54701633690024</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="D41" t="n">
-        <v>61.54701633690024</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="E41" t="n">
-        <v>61.54701633690024</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="F41" t="n">
-        <v>61.54701633690024</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="G41" t="n">
-        <v>30.14547738950216</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H41" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I41" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J41" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K41" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L41" t="n">
-        <v>33.26365020697879</v>
+        <v>32.47294022700111</v>
       </c>
       <c r="M41" t="n">
-        <v>64.04029852932365</v>
+        <v>62.51799707254419</v>
       </c>
       <c r="N41" t="n">
-        <v>79.61895950301368</v>
+        <v>77.3946258210204</v>
       </c>
       <c r="O41" t="n">
-        <v>110.3956078253585</v>
+        <v>107.4396826665635</v>
       </c>
       <c r="P41" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R41" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="S41" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="T41" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="U41" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="V41" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="W41" t="n">
-        <v>92.94855528429832</v>
+        <v>90.73907587267374</v>
       </c>
       <c r="X41" t="n">
-        <v>92.94855528429832</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="Y41" t="n">
-        <v>92.94855528429832</v>
+        <v>29.42888947221851</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>38.7904460560835</v>
+        <v>90.73907587267374</v>
       </c>
       <c r="C42" t="n">
-        <v>7.388907108685412</v>
+        <v>90.73907587267374</v>
       </c>
       <c r="D42" t="n">
-        <v>7.388907108685412</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="E42" t="n">
-        <v>7.388907108685412</v>
+        <v>60.08398267244613</v>
       </c>
       <c r="F42" t="n">
-        <v>7.388907108685412</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="G42" t="n">
-        <v>7.388907108685412</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="H42" t="n">
-        <v>7.388907108685412</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I42" t="n">
-        <v>7.388907108685412</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J42" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K42" t="n">
-        <v>2.487001884633928</v>
+        <v>18.13716983242284</v>
       </c>
       <c r="L42" t="n">
-        <v>33.26365020697879</v>
+        <v>32.35757744167192</v>
       </c>
       <c r="M42" t="n">
-        <v>64.04029852932365</v>
+        <v>62.40263428721501</v>
       </c>
       <c r="N42" t="n">
-        <v>94.8169468516685</v>
+        <v>92.4476911327581</v>
       </c>
       <c r="O42" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="P42" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Q42" t="n">
-        <v>101.5935239508797</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R42" t="n">
-        <v>101.5935239508797</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="S42" t="n">
-        <v>101.5935239508797</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="T42" t="n">
-        <v>101.5935239508797</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="U42" t="n">
-        <v>101.5935239508797</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="V42" t="n">
-        <v>101.5935239508797</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="W42" t="n">
-        <v>101.5935239508797</v>
+        <v>90.73907587267374</v>
       </c>
       <c r="X42" t="n">
-        <v>101.5935239508797</v>
+        <v>90.73907587267374</v>
       </c>
       <c r="Y42" t="n">
-        <v>70.19198500348158</v>
+        <v>90.73907587267374</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="C43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="E43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="F43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="G43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="M43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="N43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="O43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="P43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="R43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="S43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="T43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="U43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="V43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="W43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="X43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.3500942316964</v>
+        <v>2.427883381458027</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
       <c r="C44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
       <c r="D44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
       <c r="E44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
       <c r="F44" t="n">
-        <v>33.88854083203201</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="G44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K44" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L44" t="n">
-        <v>33.26365020697879</v>
+        <v>32.47294022700111</v>
       </c>
       <c r="M44" t="n">
-        <v>64.04029852932365</v>
+        <v>62.51799707254419</v>
       </c>
       <c r="N44" t="n">
-        <v>94.8169468516685</v>
+        <v>92.56305391808728</v>
       </c>
       <c r="O44" t="n">
-        <v>110.3956078253585</v>
+        <v>107.4396826665635</v>
       </c>
       <c r="P44" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.94855528429832</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="R44" t="n">
-        <v>61.54701633690024</v>
+        <v>90.73907587267374</v>
       </c>
       <c r="S44" t="n">
-        <v>61.54701633690024</v>
+        <v>90.73907587267374</v>
       </c>
       <c r="T44" t="n">
-        <v>61.54701633690024</v>
+        <v>90.73907587267374</v>
       </c>
       <c r="U44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
       <c r="V44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
       <c r="W44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
       <c r="X44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
       <c r="Y44" t="n">
-        <v>61.54701633690024</v>
+        <v>63.73806978191325</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.487001884633928</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="C45" t="n">
-        <v>2.487001884633928</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="D45" t="n">
-        <v>2.487001884633928</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="E45" t="n">
-        <v>2.487001884633928</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="F45" t="n">
-        <v>2.487001884633928</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="G45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K45" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L45" t="n">
-        <v>33.26365020697879</v>
+        <v>32.35757744167192</v>
       </c>
       <c r="M45" t="n">
-        <v>64.04029852932365</v>
+        <v>62.40263428721501</v>
       </c>
       <c r="N45" t="n">
-        <v>94.8169468516685</v>
+        <v>92.4476911327581</v>
       </c>
       <c r="O45" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="P45" t="n">
-        <v>124.3500942316964</v>
+        <v>121.3941690729013</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.3500942316964</v>
+        <v>98.6375987920846</v>
       </c>
       <c r="R45" t="n">
-        <v>92.94855528429832</v>
+        <v>67.98250559185699</v>
       </c>
       <c r="S45" t="n">
-        <v>61.54701633690024</v>
+        <v>67.98250559185699</v>
       </c>
       <c r="T45" t="n">
-        <v>61.54701633690024</v>
+        <v>67.98250559185699</v>
       </c>
       <c r="U45" t="n">
-        <v>61.54701633690024</v>
+        <v>37.32741239162938</v>
       </c>
       <c r="V45" t="n">
-        <v>33.88854083203201</v>
+        <v>37.32741239162938</v>
       </c>
       <c r="W45" t="n">
-        <v>2.487001884633928</v>
+        <v>37.32741239162938</v>
       </c>
       <c r="X45" t="n">
-        <v>2.487001884633928</v>
+        <v>33.08297658168564</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.487001884633928</v>
+        <v>33.08297658168564</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="C46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="D46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="E46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="F46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="G46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="H46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="I46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="J46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="K46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="L46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="M46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="N46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="O46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="P46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="R46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="S46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="T46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="U46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="V46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="W46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="X46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.487001884633928</v>
+        <v>2.427883381458027</v>
       </c>
     </row>
   </sheetData>
@@ -8066,13 +8066,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P3" t="n">
         <v>67.92252959633595</v>
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>99.68783188443084</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N5" t="n">
-        <v>94.48503193782824</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>45.70567566297706</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M6" t="n">
-        <v>24.74099426494263</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N6" t="n">
-        <v>4.110316593019149</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O6" t="n">
-        <v>36.58483411969945</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P6" t="n">
-        <v>57.92276625276125</v>
+        <v>67.92252959633598</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8461,10 +8461,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>89.35872216232903</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N8" t="n">
-        <v>83.98878642167108</v>
+        <v>83.98878642167111</v>
       </c>
       <c r="O8" t="n">
         <v>99.00804712831379</v>
@@ -8537,10 +8537,10 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>38.8718120156598</v>
+        <v>38.87181201565983</v>
       </c>
       <c r="M9" t="n">
-        <v>16.76619772104769</v>
+        <v>16.76619772104772</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8701,10 +8701,10 @@
         <v>23.86371338847812</v>
       </c>
       <c r="N11" t="n">
-        <v>2.491545449292891</v>
+        <v>17.19178828862402</v>
       </c>
       <c r="O11" t="n">
-        <v>36.7677253491625</v>
+        <v>22.06748250983137</v>
       </c>
       <c r="P11" t="n">
         <v>83.66766412458549</v>
@@ -8932,16 +8932,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>65.00895600402521</v>
+        <v>60.8451876669488</v>
       </c>
       <c r="M14" t="n">
-        <v>9.163470549146984</v>
+        <v>34.84382892240671</v>
       </c>
       <c r="N14" t="n">
-        <v>17.19178828862402</v>
+        <v>28.17190382255262</v>
       </c>
       <c r="O14" t="n">
-        <v>36.7677253491625</v>
+        <v>47.7478408830911</v>
       </c>
       <c r="P14" t="n">
         <v>83.66766412458549</v>
@@ -9011,7 +9011,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>10.53647450225473</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L17" t="n">
-        <v>79.27897249523147</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M17" t="n">
-        <v>38.13372987968438</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N17" t="n">
-        <v>30.28043643210482</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O17" t="n">
-        <v>51.03774184036877</v>
+        <v>51.22834658803821</v>
       </c>
       <c r="P17" t="n">
-        <v>69.5722233101028</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9248,7 +9248,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L18" t="n">
-        <v>13.69345016832925</v>
+        <v>30.99349195897977</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>14.28604556215212</v>
       </c>
       <c r="P18" t="n">
         <v>5.093443300258059</v>
@@ -9406,19 +9406,19 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L20" t="n">
-        <v>79.27897249523147</v>
+        <v>95.39764593815653</v>
       </c>
       <c r="M20" t="n">
-        <v>22.85692071747622</v>
+        <v>54.25240332260944</v>
       </c>
       <c r="N20" t="n">
-        <v>31.46180477983029</v>
+        <v>47.58047822275535</v>
       </c>
       <c r="O20" t="n">
-        <v>51.03774184036877</v>
+        <v>65.32378740252088</v>
       </c>
       <c r="P20" t="n">
-        <v>83.66766412458549</v>
+        <v>69.5722233101028</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9485,7 +9485,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L21" t="n">
-        <v>13.69345016832925</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,10 +9494,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>16.11867344292506</v>
       </c>
       <c r="P21" t="n">
-        <v>5.093443300258059</v>
+        <v>34.25430737846489</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9643,16 +9643,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L23" t="n">
-        <v>93.83362533305163</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>69.22125343760848</v>
+        <v>84.60094559083483</v>
       </c>
       <c r="N23" t="n">
-        <v>62.54932833775445</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O23" t="n">
-        <v>82.12526539829292</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P23" t="n">
         <v>83.66766412458549</v>
@@ -9719,22 +9719,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>40.20975561493429</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M24" t="n">
-        <v>14.96885011499907</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>4.803733368925094</v>
       </c>
       <c r="O24" t="n">
-        <v>31.08752355792413</v>
+        <v>46.46721571115037</v>
       </c>
       <c r="P24" t="n">
-        <v>48.61835546861551</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9883,13 +9883,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>69.22125343760848</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N26" t="n">
-        <v>62.54932833775439</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O26" t="n">
-        <v>67.36697494822727</v>
+        <v>97.50495755151923</v>
       </c>
       <c r="P26" t="n">
         <v>83.66766412458549</v>
@@ -9956,22 +9956,22 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L27" t="n">
-        <v>14.97370616002125</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M27" t="n">
-        <v>14.96885011499907</v>
+        <v>5.913409030945111</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>31.08752355792407</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>5.093443300258059</v>
+        <v>80.79952561761377</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10117,16 +10117,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L29" t="n">
-        <v>93.83362533305151</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>69.22125343760848</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N29" t="n">
-        <v>62.54932833775439</v>
+        <v>77.92902049098075</v>
       </c>
       <c r="O29" t="n">
-        <v>82.12526539829287</v>
+        <v>97.5049575515194</v>
       </c>
       <c r="P29" t="n">
         <v>83.66766412458549</v>
@@ -10196,19 +10196,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>37.59456158779409</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>30.3485422682254</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>31.0875235579241</v>
+        <v>46.4672157111504</v>
       </c>
       <c r="P30" t="n">
-        <v>35.03599957527834</v>
+        <v>5.093443300258059</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10357,16 +10357,16 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>69.22125343760848</v>
+        <v>84.60094559083478</v>
       </c>
       <c r="N32" t="n">
-        <v>61.88647870217149</v>
+        <v>77.92902049098069</v>
       </c>
       <c r="O32" t="n">
-        <v>82.12526539829287</v>
+        <v>97.50495755151917</v>
       </c>
       <c r="P32" t="n">
-        <v>69.5722233101028</v>
+        <v>83.66766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10433,16 +10433,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L33" t="n">
-        <v>45.96234207397882</v>
+        <v>61.34203422720512</v>
       </c>
       <c r="M33" t="n">
-        <v>14.96885011499904</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.09888764396653826</v>
+        <v>22.71974307173932</v>
       </c>
       <c r="P33" t="n">
         <v>5.093443300258059</v>
@@ -10588,19 +10588,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L35" t="n">
-        <v>95.39764593815653</v>
+        <v>94.22786769296656</v>
       </c>
       <c r="M35" t="n">
-        <v>54.25240332260944</v>
+        <v>69.63209547583574</v>
       </c>
       <c r="N35" t="n">
-        <v>47.58047822275535</v>
+        <v>62.96017037598165</v>
       </c>
       <c r="O35" t="n">
-        <v>51.22834658803821</v>
+        <v>82.53610743652013</v>
       </c>
       <c r="P35" t="n">
         <v>83.66766412458549</v>
@@ -10667,10 +10667,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>68.76096162327045</v>
+        <v>40.20975561493427</v>
       </c>
       <c r="L36" t="n">
-        <v>16.72833151279569</v>
+        <v>30.05998007529348</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>5.093443300258059</v>
+        <v>65.83067550261472</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10828,16 +10828,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L38" t="n">
-        <v>95.39764593815653</v>
+        <v>99.79722255745421</v>
       </c>
       <c r="M38" t="n">
-        <v>54.25240332260944</v>
+        <v>58.65197994190711</v>
       </c>
       <c r="N38" t="n">
-        <v>47.58047822275535</v>
+        <v>51.98005484205302</v>
       </c>
       <c r="O38" t="n">
-        <v>51.22834658803821</v>
+        <v>55.4501625358491</v>
       </c>
       <c r="P38" t="n">
         <v>83.66766412458549</v>
@@ -10907,7 +10907,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>0.6096580698706511</v>
+        <v>9.23105063697923</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>16.11867344292506</v>
+        <v>20.51825006222273</v>
       </c>
       <c r="P39" t="n">
         <v>5.093443300258059</v>
@@ -11065,16 +11065,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>81.12762944695027</v>
+        <v>80.38864815725151</v>
       </c>
       <c r="M41" t="n">
-        <v>39.98238683140318</v>
+        <v>39.24340554170441</v>
       </c>
       <c r="N41" t="n">
-        <v>17.95895935917047</v>
+        <v>17.24983589935852</v>
       </c>
       <c r="O41" t="n">
-        <v>52.88639879208756</v>
+        <v>52.14741750238881</v>
       </c>
       <c r="P41" t="n">
         <v>83.66766412458549</v>
@@ -11141,10 +11141,10 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>40.20975561493427</v>
+        <v>56.07772172701993</v>
       </c>
       <c r="L42" t="n">
-        <v>16.72347546777351</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.5925953938228758</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>5.093443300258059</v>
@@ -11299,19 +11299,19 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>84.27780726850284</v>
+        <v>84.27780726850281</v>
       </c>
       <c r="L44" t="n">
-        <v>81.12762944695027</v>
+        <v>80.38864815725151</v>
       </c>
       <c r="M44" t="n">
-        <v>39.98238683140318</v>
+        <v>39.24340554170441</v>
       </c>
       <c r="N44" t="n">
-        <v>33.31046173154908</v>
+        <v>32.57148044185032</v>
       </c>
       <c r="O44" t="n">
-        <v>37.53489641970895</v>
+        <v>36.825772959897</v>
       </c>
       <c r="P44" t="n">
         <v>83.66766412458549</v>
@@ -11381,7 +11381,7 @@
         <v>40.20975561493427</v>
       </c>
       <c r="L45" t="n">
-        <v>16.72347546777351</v>
+        <v>15.86796611208567</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.5925953938228758</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>5.093443300258059</v>
@@ -22576,7 +22576,7 @@
         <v>78.22308851520961</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22731,7 +22731,7 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L4" t="n">
         <v>71.46654840866277</v>
@@ -22740,13 +22740,13 @@
         <v>68.66533643318368</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O4" t="n">
         <v>80.66114959698193</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q4" t="n">
         <v>157.5243583765053</v>
@@ -22798,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.2393938182636</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H5" t="n">
-        <v>350.2622638205034</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I5" t="n">
-        <v>255.5523639994917</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J5" t="n">
-        <v>106.1646981698696</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K5" t="n">
-        <v>65.77324371769865</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L5" t="n">
-        <v>23.0457150057704</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>9.91130700242627</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P5" t="n">
-        <v>60.2598723202301</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q5" t="n">
-        <v>124.0459730342341</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R5" t="n">
-        <v>213.3536458584578</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S5" t="n">
-        <v>236.6077625564944</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T5" t="n">
-        <v>219.6011498649016</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7935393162601</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.046439321575</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H6" t="n">
-        <v>138.0543186005382</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I6" t="n">
-        <v>118.0344046631496</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J6" t="n">
-        <v>84.43171408389492</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K6" t="n">
-        <v>16.1228071099125</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>57.84400791324799</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R6" t="n">
-        <v>156.3463334969579</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S6" t="n">
-        <v>208.6070930229634</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T6" t="n">
-        <v>230.2221530804288</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6516250615921</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2607674555123</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H7" t="n">
-        <v>167.8122202643745</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I7" t="n">
-        <v>168.529032519084</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J7" t="n">
-        <v>134.1457888115874</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K7" t="n">
-        <v>90.5299008737682</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L7" t="n">
-        <v>64.9394333162856</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M7" t="n">
-        <v>61.78340873733804</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N7" t="n">
-        <v>49.34294830806635</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O7" t="n">
-        <v>74.4557206220351</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P7" t="n">
-        <v>93.04043633123671</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.848116654854</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R7" t="n">
-        <v>222.2398667230035</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S7" t="n">
-        <v>244.1518414419876</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T7" t="n">
-        <v>218.199378745922</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2210192262962</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23047,10 +23047,10 @@
         <v>101.17202184758</v>
       </c>
       <c r="K8" t="n">
-        <v>58.29051612840928</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L8" t="n">
-        <v>13.76272976322227</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23062,7 +23062,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>51.80080109985099</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q8" t="n">
         <v>117.6935628343943</v>
@@ -23126,7 +23126,7 @@
         <v>81.45811026959613</v>
       </c>
       <c r="K9" t="n">
-        <v>11.04044456262879</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23205,22 +23205,22 @@
         <v>132.2802453397308</v>
       </c>
       <c r="K10" t="n">
-        <v>87.46423987719797</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L10" t="n">
         <v>61.01644271081538</v>
       </c>
       <c r="M10" t="n">
-        <v>57.6471651877402</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N10" t="n">
-        <v>45.30505538511905</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O10" t="n">
         <v>70.7260729557852</v>
       </c>
       <c r="P10" t="n">
-        <v>89.84907843621555</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q10" t="n">
         <v>151.6385858692978</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>364.5563275970632</v>
+        <v>351.371764415772</v>
       </c>
       <c r="C11" t="n">
         <v>333.5971194742085</v>
@@ -23269,7 +23269,7 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F11" t="n">
-        <v>384.17756745837</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
         <v>406.7534736977207</v>
@@ -23278,10 +23278,10 @@
         <v>329.9979705112284</v>
       </c>
       <c r="I11" t="n">
-        <v>222.4334594294712</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J11" t="n">
-        <v>62.27902778684214</v>
+        <v>47.31017767184309</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>147.5852192972233</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H12" t="n">
-        <v>120.4135458170332</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I12" t="n">
-        <v>93.54030797786366</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J12" t="n">
-        <v>43.32485933570483</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,16 +23387,16 @@
         <v>139.1693410830749</v>
       </c>
       <c r="S12" t="n">
-        <v>203.4683135038341</v>
+        <v>190.283750322543</v>
       </c>
       <c r="T12" t="n">
-        <v>229.1070318577418</v>
+        <v>214.1381817427427</v>
       </c>
       <c r="U12" t="n">
-        <v>249.633423953496</v>
+        <v>234.664573838497</v>
       </c>
       <c r="V12" t="n">
-        <v>249.2999251801724</v>
+        <v>234.3310750651733</v>
       </c>
       <c r="W12" t="n">
         <v>283.2492567629311</v>
@@ -23497,10 +23497,10 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C14" t="n">
-        <v>333.5971194742085</v>
+        <v>310.741270530633</v>
       </c>
       <c r="D14" t="n">
-        <v>319.1317556432476</v>
+        <v>293.18278999432</v>
       </c>
       <c r="E14" t="n">
         <v>359.9585549362873</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>406.7534736977207</v>
+        <v>395.7733581637921</v>
       </c>
       <c r="H14" t="n">
-        <v>329.9979705112284</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I14" t="n">
-        <v>220.6491724957633</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J14" t="n">
-        <v>49.09446460555098</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>224.8250298051639</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3376759156334</v>
+        <v>191.3887102667057</v>
       </c>
       <c r="U14" t="n">
         <v>248.7521737158166</v>
@@ -23579,25 +23579,25 @@
         <v>203.8424276152394</v>
       </c>
       <c r="D15" t="n">
-        <v>172.0989423795122</v>
+        <v>149.2430934359367</v>
       </c>
       <c r="E15" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F15" t="n">
-        <v>173.9843481253239</v>
+        <v>148.0353824763963</v>
       </c>
       <c r="G15" t="n">
-        <v>145.8009323635154</v>
+        <v>134.8208168295868</v>
       </c>
       <c r="H15" t="n">
-        <v>122.1978327507411</v>
+        <v>109.4334302831045</v>
       </c>
       <c r="I15" t="n">
-        <v>93.54030797786366</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J15" t="n">
-        <v>43.32485933570483</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23734,28 +23734,28 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C17" t="n">
-        <v>333.5971194742085</v>
+        <v>293.6461981989344</v>
       </c>
       <c r="D17" t="n">
-        <v>319.1317556432476</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E17" t="n">
-        <v>359.9585549362873</v>
+        <v>314.601014887157</v>
       </c>
       <c r="F17" t="n">
-        <v>399.146417573369</v>
+        <v>353.7888775242387</v>
       </c>
       <c r="G17" t="n">
-        <v>395.9687301059741</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H17" t="n">
-        <v>315.7279540200221</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I17" t="n">
-        <v>206.379156004557</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J17" t="n">
-        <v>33.04016118063683</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>135.0161887717688</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H18" t="n">
-        <v>106.1435293258269</v>
+        <v>135.3823959320322</v>
       </c>
       <c r="I18" t="n">
-        <v>79.2702914866574</v>
+        <v>91.08724139559729</v>
       </c>
       <c r="J18" t="n">
-        <v>29.05484284449857</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,10 +23855,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>139.1693410830749</v>
+        <v>93.81180103394456</v>
       </c>
       <c r="S18" t="n">
         <v>203.4683135038341</v>
@@ -23867,13 +23867,13 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U18" t="n">
-        <v>249.633423953496</v>
+        <v>204.2758839043657</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W18" t="n">
-        <v>283.2492567629311</v>
+        <v>237.8917167138007</v>
       </c>
       <c r="X18" t="n">
         <v>230.033063710963</v>
@@ -23974,16 +23974,16 @@
         <v>333.5971194742085</v>
       </c>
       <c r="D20" t="n">
-        <v>319.1317556432476</v>
+        <v>273.7742155941173</v>
       </c>
       <c r="E20" t="n">
-        <v>330.719688330082</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F20" t="n">
-        <v>373.3928238666234</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7223238127198</v>
+        <v>376.3647837635894</v>
       </c>
       <c r="H20" t="n">
         <v>344.9668206262274</v>
@@ -24013,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.96936286685519</v>
+        <v>22.85068942393013</v>
       </c>
       <c r="R20" t="n">
-        <v>151.6343805165085</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S20" t="n">
         <v>224.8250298051639</v>
@@ -24025,7 +24025,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7521737158166</v>
+        <v>208.8012524405426</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24092,22 +24092,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R21" t="n">
-        <v>139.1693410830749</v>
+        <v>93.81180103394456</v>
       </c>
       <c r="S21" t="n">
-        <v>174.2294468976288</v>
+        <v>158.1107734547038</v>
       </c>
       <c r="T21" t="n">
-        <v>199.8681652515365</v>
+        <v>229.1070318577418</v>
       </c>
       <c r="U21" t="n">
-        <v>249.633423953496</v>
+        <v>204.2758839043657</v>
       </c>
       <c r="V21" t="n">
-        <v>220.0610585739671</v>
+        <v>209.3490039048984</v>
       </c>
       <c r="W21" t="n">
         <v>283.2492567629311</v>
@@ -24116,7 +24116,7 @@
         <v>230.033063710963</v>
       </c>
       <c r="Y21" t="n">
-        <v>239.6716772848563</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="22">
@@ -24220,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7223238127198</v>
+        <v>346.0162414953641</v>
       </c>
       <c r="H23" t="n">
-        <v>284.640430462098</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I23" t="n">
-        <v>175.2916324466329</v>
+        <v>235.6180226107624</v>
       </c>
       <c r="J23" t="n">
-        <v>62.27902778684216</v>
+        <v>62.27902778684214</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>68.20822947306053</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>180.8732471227138</v>
@@ -24262,19 +24262,19 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V23" t="n">
-        <v>313.3044420010231</v>
+        <v>239.124671851601</v>
       </c>
       <c r="W23" t="n">
-        <v>265.065335315164</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X23" t="n">
         <v>348.8168793035129</v>
       </c>
       <c r="Y23" t="n">
-        <v>324.793491938617</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="24">
@@ -24305,10 +24305,10 @@
         <v>135.3823959320322</v>
       </c>
       <c r="I24" t="n">
-        <v>48.18276792873331</v>
+        <v>108.5091580928627</v>
       </c>
       <c r="J24" t="n">
-        <v>58.29370945070389</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,10 +24329,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.5290045780086</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R24" t="n">
-        <v>139.169341083075</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S24" t="n">
         <v>203.4683135038341</v>
@@ -24341,19 +24341,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U24" t="n">
-        <v>249.633423953496</v>
+        <v>182.9515066483691</v>
       </c>
       <c r="V24" t="n">
-        <v>249.2999251801724</v>
+        <v>173.5938428628167</v>
       </c>
       <c r="W24" t="n">
-        <v>222.9228665988017</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X24" t="n">
-        <v>169.7066735468336</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.7607819570282</v>
+        <v>167.1901840962376</v>
       </c>
     </row>
     <row r="25">
@@ -24390,22 +24390,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K25" t="n">
-        <v>63.58271276927573</v>
+        <v>63.58271276927572</v>
       </c>
       <c r="L25" t="n">
-        <v>30.45631013468387</v>
+        <v>30.45631013468386</v>
       </c>
       <c r="M25" t="n">
-        <v>25.42579023297469</v>
+        <v>25.42579023297466</v>
       </c>
       <c r="N25" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O25" t="n">
-        <v>41.67208363857273</v>
+        <v>41.67208363857272</v>
       </c>
       <c r="P25" t="n">
-        <v>64.98837134358664</v>
+        <v>64.98837134358662</v>
       </c>
       <c r="Q25" t="n">
         <v>134.42632090912</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>304.2299374329338</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C26" t="n">
-        <v>333.5971194742085</v>
+        <v>257.8910371568527</v>
       </c>
       <c r="D26" t="n">
-        <v>319.1317556432476</v>
+        <v>243.4256733258919</v>
       </c>
       <c r="E26" t="n">
         <v>359.9585549362873</v>
       </c>
       <c r="F26" t="n">
-        <v>338.8200274092396</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G26" t="n">
-        <v>361.3959336485904</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H26" t="n">
         <v>344.9668206262274</v>
@@ -24490,7 +24490,7 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R26" t="n">
-        <v>127.7377626661486</v>
+        <v>114.1913298175869</v>
       </c>
       <c r="S26" t="n">
         <v>224.8250298051639</v>
@@ -24530,16 +24530,16 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E27" t="n">
-        <v>127.1341551334734</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F27" t="n">
-        <v>113.6579579611945</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>107.6342980219493</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3823959320322</v>
+        <v>59.6763136146765</v>
       </c>
       <c r="I27" t="n">
         <v>108.5091580928627</v>
@@ -24581,16 +24581,16 @@
         <v>249.633423953496</v>
       </c>
       <c r="V27" t="n">
-        <v>188.973535016043</v>
+        <v>182.6180078750455</v>
       </c>
       <c r="W27" t="n">
-        <v>283.2492567629311</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X27" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y27" t="n">
-        <v>242.8962664135933</v>
+        <v>167.1901840962376</v>
       </c>
     </row>
     <row r="28">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>311.420843140498</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C29" t="n">
         <v>333.5971194742085</v>
@@ -24688,10 +24688,10 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E29" t="n">
-        <v>299.6321647721579</v>
+        <v>359.9585549362873</v>
       </c>
       <c r="F29" t="n">
-        <v>338.8200274092396</v>
+        <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
         <v>421.7223238127198</v>
@@ -24703,7 +24703,7 @@
         <v>235.6180226107624</v>
       </c>
       <c r="J29" t="n">
-        <v>62.27902778684214</v>
+        <v>62.27902778684216</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>68.2082294730605</v>
+        <v>68.20822947306053</v>
       </c>
       <c r="R29" t="n">
-        <v>180.8732471227138</v>
+        <v>105.1671648053581</v>
       </c>
       <c r="S29" t="n">
-        <v>224.8250298051639</v>
+        <v>149.1189474878082</v>
       </c>
       <c r="T29" t="n">
         <v>217.3376759156334</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7521737158166</v>
+        <v>173.0460913984609</v>
       </c>
       <c r="V29" t="n">
-        <v>313.3044420010231</v>
+        <v>246.6225246958962</v>
       </c>
       <c r="W29" t="n">
         <v>325.3917254792934</v>
@@ -24748,7 +24748,7 @@
         <v>348.8168793035129</v>
       </c>
       <c r="Y29" t="n">
-        <v>317.6025862310527</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>134.8772729244693</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C30" t="n">
         <v>203.8424276152394</v>
@@ -24767,13 +24767,13 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E30" t="n">
-        <v>127.1341551334734</v>
+        <v>120.7786279924759</v>
       </c>
       <c r="F30" t="n">
-        <v>113.6579579611945</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>100.443392314385</v>
+        <v>160.7697824785144</v>
       </c>
       <c r="H30" t="n">
         <v>135.3823959320322</v>
@@ -24782,7 +24782,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J30" t="n">
-        <v>58.29370945070387</v>
+        <v>58.29370945070389</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,10 +24803,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.52900457800858</v>
+        <v>22.5290045780086</v>
       </c>
       <c r="R30" t="n">
-        <v>139.1693410830749</v>
+        <v>139.169341083075</v>
       </c>
       <c r="S30" t="n">
         <v>203.4683135038341</v>
@@ -24815,19 +24815,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U30" t="n">
-        <v>249.633423953496</v>
+        <v>173.9273416361403</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
       </c>
       <c r="W30" t="n">
-        <v>283.2492567629311</v>
+        <v>207.5431744455754</v>
       </c>
       <c r="X30" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y30" t="n">
-        <v>242.8962664135933</v>
+        <v>167.1901840962376</v>
       </c>
     </row>
     <row r="31">
@@ -24864,22 +24864,22 @@
         <v>117.7476446888457</v>
       </c>
       <c r="K31" t="n">
-        <v>63.58271276927572</v>
+        <v>63.58271276927573</v>
       </c>
       <c r="L31" t="n">
-        <v>30.45631013468386</v>
+        <v>30.45631013468387</v>
       </c>
       <c r="M31" t="n">
-        <v>25.42579023297466</v>
+        <v>25.42579023297469</v>
       </c>
       <c r="N31" t="n">
         <v>13.84983270846368</v>
       </c>
       <c r="O31" t="n">
-        <v>41.67208363857272</v>
+        <v>41.67208363857273</v>
       </c>
       <c r="P31" t="n">
-        <v>64.98837134358662</v>
+        <v>64.98837134358664</v>
       </c>
       <c r="Q31" t="n">
         <v>134.42632090912</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>304.2299374329338</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C32" t="n">
         <v>333.5971194742085</v>
@@ -24925,13 +24925,13 @@
         <v>319.1317556432476</v>
       </c>
       <c r="E32" t="n">
-        <v>359.9585549362873</v>
+        <v>285.7787847868652</v>
       </c>
       <c r="F32" t="n">
-        <v>399.146417573369</v>
+        <v>323.4403352560133</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7223238127198</v>
+        <v>346.0162414953641</v>
       </c>
       <c r="H32" t="n">
         <v>344.9668206262274</v>
@@ -24961,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.2082294730605</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>180.8732471227138</v>
@@ -24979,13 +24979,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W32" t="n">
-        <v>272.2562410227282</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X32" t="n">
-        <v>288.4904891393835</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y32" t="n">
-        <v>317.6025862310527</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>127.686367216905</v>
+        <v>112.3066750636787</v>
       </c>
       <c r="C33" t="n">
-        <v>143.51603745111</v>
+        <v>128.1363452978837</v>
       </c>
       <c r="D33" t="n">
-        <v>141.4924625009556</v>
+        <v>172.0989423795122</v>
       </c>
       <c r="E33" t="n">
         <v>187.4605452976028</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R33" t="n">
         <v>139.1693410830749</v>
@@ -25058,13 +25058,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W33" t="n">
-        <v>222.9228665988017</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X33" t="n">
-        <v>230.033063710963</v>
+        <v>163.3511464058361</v>
       </c>
       <c r="Y33" t="n">
-        <v>242.8962664135933</v>
+        <v>167.1901840962376</v>
       </c>
     </row>
     <row r="34">
@@ -25156,19 +25156,19 @@
         <v>364.5563275970632</v>
       </c>
       <c r="C35" t="n">
-        <v>333.5971194742085</v>
+        <v>280.0997653503727</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1317556432476</v>
+        <v>258.394523440891</v>
       </c>
       <c r="E35" t="n">
-        <v>359.9585549362873</v>
+        <v>299.2213227339307</v>
       </c>
       <c r="F35" t="n">
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>381.7714025374457</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H35" t="n">
         <v>344.9668206262274</v>
@@ -25201,7 +25201,7 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R35" t="n">
-        <v>180.8732471227138</v>
+        <v>120.1360149203571</v>
       </c>
       <c r="S35" t="n">
         <v>224.8250298051639</v>
@@ -25216,13 +25216,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W35" t="n">
-        <v>280.034185430163</v>
+        <v>325.3917254792934</v>
       </c>
       <c r="X35" t="n">
-        <v>303.4593392543825</v>
+        <v>348.8168793035129</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.5714363460518</v>
+        <v>377.9289763951821</v>
       </c>
     </row>
     <row r="36">
@@ -25241,7 +25241,7 @@
         <v>172.0989423795122</v>
       </c>
       <c r="E36" t="n">
-        <v>187.4605452976028</v>
+        <v>126.7233130952462</v>
       </c>
       <c r="F36" t="n">
         <v>173.9843481253239</v>
@@ -25256,7 +25256,7 @@
         <v>108.5091580928627</v>
       </c>
       <c r="J36" t="n">
-        <v>12.93616940157351</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25292,16 +25292,16 @@
         <v>249.633423953496</v>
       </c>
       <c r="V36" t="n">
-        <v>249.2999251801724</v>
+        <v>195.8025710563367</v>
       </c>
       <c r="W36" t="n">
-        <v>243.2983354876571</v>
+        <v>222.5120245605744</v>
       </c>
       <c r="X36" t="n">
-        <v>184.6755236618326</v>
+        <v>230.033063710963</v>
       </c>
       <c r="Y36" t="n">
-        <v>197.538726364463</v>
+        <v>182.1590342112367</v>
       </c>
     </row>
     <row r="37">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>324.6054063217891</v>
+        <v>364.5563275970632</v>
       </c>
       <c r="C38" t="n">
-        <v>288.2395794250781</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D38" t="n">
-        <v>273.7742155941173</v>
+        <v>275.3056872816962</v>
       </c>
       <c r="E38" t="n">
         <v>359.9585549362873</v>
@@ -25405,7 +25405,7 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7223238127198</v>
+        <v>371.9652071442918</v>
       </c>
       <c r="H38" t="n">
         <v>344.9668206262274</v>
@@ -25438,16 +25438,16 @@
         <v>68.2082294730605</v>
       </c>
       <c r="R38" t="n">
-        <v>135.5157070735834</v>
+        <v>180.8732471227138</v>
       </c>
       <c r="S38" t="n">
         <v>224.8250298051639</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3376759156334</v>
+        <v>167.5805592472054</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7521737158166</v>
+        <v>198.9950570473885</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25472,16 +25472,16 @@
         <v>188.0127573810344</v>
       </c>
       <c r="C39" t="n">
-        <v>158.484887566109</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D39" t="n">
         <v>172.0989423795122</v>
       </c>
       <c r="E39" t="n">
-        <v>142.1030052484725</v>
+        <v>187.4605452976028</v>
       </c>
       <c r="F39" t="n">
-        <v>128.6268080761936</v>
+        <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
         <v>160.7697824785144</v>
@@ -25517,7 +25517,7 @@
         <v>22.52900457800858</v>
       </c>
       <c r="R39" t="n">
-        <v>99.21841980780093</v>
+        <v>139.1693410830749</v>
       </c>
       <c r="S39" t="n">
         <v>203.4683135038341</v>
@@ -25526,19 +25526,19 @@
         <v>229.1070318577418</v>
       </c>
       <c r="U39" t="n">
-        <v>249.633423953496</v>
+        <v>199.876307285068</v>
       </c>
       <c r="V39" t="n">
-        <v>249.2999251801724</v>
+        <v>199.5428085117443</v>
       </c>
       <c r="W39" t="n">
-        <v>283.2492567629311</v>
+        <v>233.4921400945031</v>
       </c>
       <c r="X39" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y39" t="n">
-        <v>242.8962664135933</v>
+        <v>199.0701980520419</v>
       </c>
     </row>
     <row r="40">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.5563275970632</v>
+        <v>337.8253315672103</v>
       </c>
       <c r="C41" t="n">
-        <v>302.5095959162844</v>
+        <v>333.5971194742085</v>
       </c>
       <c r="D41" t="n">
         <v>319.1317556432476</v>
@@ -25642,10 +25642,10 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>390.6348002547957</v>
+        <v>421.7223238127198</v>
       </c>
       <c r="H41" t="n">
-        <v>317.5849298764079</v>
+        <v>344.9668206262274</v>
       </c>
       <c r="I41" t="n">
         <v>235.6180226107624</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.1207059151364</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R41" t="n">
         <v>180.8732471227138</v>
@@ -25690,13 +25690,13 @@
         <v>313.3044420010231</v>
       </c>
       <c r="W41" t="n">
-        <v>325.3917254792934</v>
+        <v>295.043183211068</v>
       </c>
       <c r="X41" t="n">
-        <v>348.8168793035129</v>
+        <v>318.4683370352876</v>
       </c>
       <c r="Y41" t="n">
-        <v>377.9289763951821</v>
+        <v>347.5804341269568</v>
       </c>
     </row>
     <row r="42">
@@ -25706,31 +25706,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>156.9252338231103</v>
+        <v>188.0127573810344</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7549040573153</v>
+        <v>203.8424276152394</v>
       </c>
       <c r="D42" t="n">
-        <v>172.0989423795122</v>
+        <v>141.7504001112869</v>
       </c>
       <c r="E42" t="n">
         <v>187.4605452976028</v>
       </c>
       <c r="F42" t="n">
-        <v>173.9843481253239</v>
+        <v>147.253352095471</v>
       </c>
       <c r="G42" t="n">
         <v>160.7697824785144</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3823959320322</v>
+        <v>105.0338536638069</v>
       </c>
       <c r="I42" t="n">
         <v>108.5091580928627</v>
       </c>
       <c r="J42" t="n">
-        <v>53.44082327889291</v>
+        <v>58.29370945070387</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>22.52900457800858</v>
       </c>
       <c r="R42" t="n">
         <v>139.1693410830749</v>
@@ -25769,13 +25769,13 @@
         <v>249.2999251801724</v>
       </c>
       <c r="W42" t="n">
-        <v>283.2492567629311</v>
+        <v>252.9007144947058</v>
       </c>
       <c r="X42" t="n">
         <v>230.033063710963</v>
       </c>
       <c r="Y42" t="n">
-        <v>211.8087428556692</v>
+        <v>242.8962664135933</v>
       </c>
     </row>
     <row r="43">
@@ -25876,10 +25876,10 @@
         <v>359.9585549362873</v>
       </c>
       <c r="F44" t="n">
-        <v>371.7645268235495</v>
+        <v>368.7978753051437</v>
       </c>
       <c r="G44" t="n">
-        <v>390.6348002547957</v>
+        <v>391.3737815444944</v>
       </c>
       <c r="H44" t="n">
         <v>344.9668206262274</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.1207059151364</v>
+        <v>68.2082294730605</v>
       </c>
       <c r="R44" t="n">
-        <v>149.7857235647897</v>
+        <v>150.5247048544884</v>
       </c>
       <c r="S44" t="n">
         <v>224.8250298051639</v>
@@ -25921,7 +25921,7 @@
         <v>217.3376759156334</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7521737158166</v>
+        <v>222.0211776859637</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,7 +25958,7 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7697824785144</v>
+        <v>130.4212402102891</v>
       </c>
       <c r="H45" t="n">
         <v>135.3823959320322</v>
@@ -25988,28 +25988,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.52900457800858</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>108.0818175251508</v>
+        <v>108.8207988148496</v>
       </c>
       <c r="S45" t="n">
-        <v>172.38078994591</v>
+        <v>203.4683135038341</v>
       </c>
       <c r="T45" t="n">
         <v>229.1070318577418</v>
       </c>
       <c r="U45" t="n">
-        <v>249.633423953496</v>
+        <v>219.2848816852707</v>
       </c>
       <c r="V45" t="n">
-        <v>221.9180344303528</v>
+        <v>249.2999251801724</v>
       </c>
       <c r="W45" t="n">
-        <v>252.161733205007</v>
+        <v>283.2492567629311</v>
       </c>
       <c r="X45" t="n">
-        <v>230.033063710963</v>
+        <v>225.8310722591187</v>
       </c>
       <c r="Y45" t="n">
         <v>242.8962664135933</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>362636.7536097892</v>
+        <v>352280.298877109</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>368904.4922308367</v>
+        <v>368904.4922308368</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>409493.5865451877</v>
+        <v>416838.7703716924</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>419039.5602657084</v>
+        <v>429993.0569762494</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>419039.5602657084</v>
+        <v>429993.0569762493</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>440323.8573338061</v>
+        <v>451021.5448426094</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>440323.8573338062</v>
+        <v>451021.5448426094</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>440323.8573338061</v>
+        <v>451021.5448426094</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>440323.8573338059</v>
+        <v>451021.5448426094</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>429993.0569762492</v>
+        <v>440607.4012962889</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>429993.0569762495</v>
+        <v>433029.4390204648</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>420295.8210809219</v>
+        <v>419793.6439535964</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420295.8210809218</v>
+        <v>419793.6439535963</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142332.7213668073</v>
+        <v>142332.7213668072</v>
       </c>
       <c r="C2" t="n">
-        <v>147342.5441868087</v>
+        <v>142332.7213668072</v>
       </c>
       <c r="D2" t="n">
         <v>150353.5969382591</v>
@@ -26325,37 +26325,37 @@
         <v>170632.4113939693</v>
       </c>
       <c r="F2" t="n">
-        <v>170632.4113939693</v>
+        <v>173361.6864468881</v>
       </c>
       <c r="G2" t="n">
-        <v>174179.4414679101</v>
+        <v>178185.9834007325</v>
       </c>
       <c r="H2" t="n">
-        <v>174179.44146791</v>
+        <v>178185.9834007324</v>
       </c>
       <c r="I2" t="n">
-        <v>181906.7192220911</v>
+        <v>185729.576093284</v>
       </c>
       <c r="J2" t="n">
-        <v>181906.7192220911</v>
+        <v>185729.5760932839</v>
       </c>
       <c r="K2" t="n">
-        <v>181906.7192220911</v>
+        <v>185729.5760932839</v>
       </c>
       <c r="L2" t="n">
-        <v>181906.7192220911</v>
+        <v>185729.5760932839</v>
       </c>
       <c r="M2" t="n">
-        <v>178185.9834007324</v>
+        <v>182008.8402719251</v>
       </c>
       <c r="N2" t="n">
-        <v>178185.9834007325</v>
+        <v>179279.5652190065</v>
       </c>
       <c r="O2" t="n">
-        <v>174638.9533267918</v>
+        <v>174455.2682651622</v>
       </c>
       <c r="P2" t="n">
-        <v>174638.9533267918</v>
+        <v>174455.2682651622</v>
       </c>
     </row>
     <row r="3">
@@ -26368,25 +26368,25 @@
         <v>300331.6078316385</v>
       </c>
       <c r="C3" t="n">
-        <v>22169.49049151769</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12531.6099217307</v>
+        <v>33381.84090058054</v>
       </c>
       <c r="E3" t="n">
         <v>96048.07996408457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3146.088583474433</v>
       </c>
       <c r="G3" t="n">
-        <v>3911.197469992269</v>
+        <v>5319.599114479559</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8266.825352046735</v>
+        <v>8070.314708508751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>20170.61568789217</v>
       </c>
       <c r="C4" t="n">
-        <v>18837.48384056873</v>
+        <v>20170.61568789218</v>
       </c>
       <c r="D4" t="n">
         <v>18079.43270823199</v>
@@ -26429,37 +26429,37 @@
         <v>11362.13981210634</v>
       </c>
       <c r="F4" t="n">
-        <v>11362.13981210634</v>
+        <v>12346.97144006269</v>
       </c>
       <c r="G4" t="n">
-        <v>12642.05016719987</v>
+        <v>14258.62872295445</v>
       </c>
       <c r="H4" t="n">
-        <v>12642.05016719988</v>
+        <v>14258.62872295445</v>
       </c>
       <c r="I4" t="n">
-        <v>15918.5586835211</v>
+        <v>17707.39104435228</v>
       </c>
       <c r="J4" t="n">
-        <v>15918.5586835211</v>
+        <v>17707.39104435228</v>
       </c>
       <c r="K4" t="n">
-        <v>15918.5586835211</v>
+        <v>17707.39104435229</v>
       </c>
       <c r="L4" t="n">
-        <v>15918.55868352109</v>
+        <v>17707.39104435228</v>
       </c>
       <c r="M4" t="n">
-        <v>14258.62872295445</v>
+        <v>15964.11789502194</v>
       </c>
       <c r="N4" t="n">
-        <v>14258.62872295445</v>
+        <v>14746.50781774631</v>
       </c>
       <c r="O4" t="n">
-        <v>12827.45619305413</v>
+        <v>12753.34207254285</v>
       </c>
       <c r="P4" t="n">
-        <v>12827.45619305413</v>
+        <v>12753.34207254285</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>40422.05903150925</v>
       </c>
       <c r="C5" t="n">
-        <v>40952.80121384036</v>
+        <v>40422.05903150924</v>
       </c>
       <c r="D5" t="n">
         <v>41271.79307559616</v>
@@ -26481,37 +26481,37 @@
         <v>11039.24867339523</v>
       </c>
       <c r="F5" t="n">
-        <v>11039.24867339523</v>
+        <v>11706.83969785809</v>
       </c>
       <c r="G5" t="n">
-        <v>11906.86567606057</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="H5" t="n">
-        <v>11906.86567606057</v>
+        <v>12886.88102139042</v>
       </c>
       <c r="I5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="J5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="K5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="L5" t="n">
-        <v>13796.98710838236</v>
+        <v>14732.07239129852</v>
       </c>
       <c r="M5" t="n">
-        <v>12886.88102139042</v>
+        <v>13821.96630430657</v>
       </c>
       <c r="N5" t="n">
-        <v>12886.88102139042</v>
+        <v>13154.37527984371</v>
       </c>
       <c r="O5" t="n">
-        <v>12019.26401872507</v>
+        <v>11974.33395631139</v>
       </c>
       <c r="P5" t="n">
-        <v>12019.26401872507</v>
+        <v>11974.33395631139</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218591.5611842327</v>
+        <v>-235633.9488721481</v>
       </c>
       <c r="C6" t="n">
-        <v>65382.76864088188</v>
+        <v>64697.65895949038</v>
       </c>
       <c r="D6" t="n">
-        <v>78470.76123270026</v>
+        <v>40960.08902171848</v>
       </c>
       <c r="E6" t="n">
-        <v>52182.94294438318</v>
+        <v>36488.15954347552</v>
       </c>
       <c r="F6" t="n">
-        <v>148231.0229084677</v>
+        <v>130596.9688032956</v>
       </c>
       <c r="G6" t="n">
-        <v>145719.3281546574</v>
+        <v>130385.7850460843</v>
       </c>
       <c r="H6" t="n">
-        <v>149630.5256246496</v>
+        <v>135705.3841605638</v>
       </c>
       <c r="I6" t="n">
-        <v>143924.3480781409</v>
+        <v>130243.927152946</v>
       </c>
       <c r="J6" t="n">
-        <v>152191.1734301876</v>
+        <v>138314.2418614547</v>
       </c>
       <c r="K6" t="n">
-        <v>152191.1734301877</v>
+        <v>138314.2418614547</v>
       </c>
       <c r="L6" t="n">
-        <v>152191.1734301877</v>
+        <v>138314.2418614547</v>
       </c>
       <c r="M6" t="n">
-        <v>151040.4736563876</v>
+        <v>137069.707380163</v>
       </c>
       <c r="N6" t="n">
-        <v>151040.4736563876</v>
+        <v>136095.6679502725</v>
       </c>
       <c r="O6" t="n">
-        <v>149792.2331150126</v>
+        <v>134214.8496387905</v>
       </c>
       <c r="P6" t="n">
-        <v>149792.2331150126</v>
+        <v>134214.8496387904</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>336.0184043046041</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="D3" t="n">
         <v>350.6510585135856</v>
@@ -26758,13 +26758,13 @@
         <v>464.6395681836371</v>
       </c>
       <c r="I3" t="n">
-        <v>464.639568183637</v>
+        <v>464.6395681836371</v>
       </c>
       <c r="J3" t="n">
         <v>464.6395681836371</v>
       </c>
       <c r="K3" t="n">
-        <v>464.6395681836371</v>
+        <v>464.639568183637</v>
       </c>
       <c r="L3" t="n">
         <v>464.6395681836371</v>
@@ -26801,37 +26801,37 @@
         <v>14.96885011499904</v>
       </c>
       <c r="F4" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="G4" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="H4" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="I4" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="J4" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="K4" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="L4" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M4" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="N4" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="O4" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="P4" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>24.34597166656529</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14.63265420898152</v>
+        <v>38.97862587554681</v>
       </c>
       <c r="E3" t="n">
         <v>113.9885096700515</v>
@@ -27023,16 +27023,16 @@
         <v>14.96885011499904</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>10.98011553392862</v>
       </c>
       <c r="G4" t="n">
-        <v>14.27001649120626</v>
+        <v>19.4085744002027</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>14.96885011499904</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10.98011553392862</v>
       </c>
       <c r="O4" t="n">
-        <v>14.27001649120626</v>
+        <v>19.4085744002027</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31080,7 +31080,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1002363602453993</v>
@@ -31123,7 +31123,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I3" t="n">
         <v>23.08140185102458</v>
@@ -31138,7 +31138,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N3" t="n">
         <v>174.3572036132365</v>
@@ -31208,10 +31208,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L4" t="n">
         <v>83.55886825184406</v>
@@ -31220,13 +31220,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O4" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q4" t="n">
         <v>47.06253732834386</v>
@@ -31235,7 +31235,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T4" t="n">
         <v>2.40141054655538</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.350827755998407</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H5" t="n">
-        <v>13.83416475611869</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I5" t="n">
-        <v>52.07778706312865</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J5" t="n">
-        <v>114.6498172556699</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K5" t="n">
-        <v>171.8303561670826</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L5" t="n">
-        <v>213.1707511047188</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M5" t="n">
-        <v>237.1935342104555</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N5" t="n">
-        <v>241.031573572186</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O5" t="n">
-        <v>227.5992800734768</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P5" t="n">
-        <v>194.2507198472661</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q5" t="n">
-        <v>145.8742008355731</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R5" t="n">
-        <v>84.85393402773502</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S5" t="n">
-        <v>30.78198748981374</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T5" t="n">
-        <v>5.913248501883031</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1080662204798726</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7227565677495258</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H6" t="n">
-        <v>6.98030685168621</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I6" t="n">
-        <v>24.88438182821832</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J6" t="n">
-        <v>68.28464572759884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K6" t="n">
-        <v>116.7093357668171</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L6" t="n">
-        <v>156.9301047650889</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M6" t="n">
-        <v>183.1300303460092</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N6" t="n">
-        <v>187.9769373288558</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O6" t="n">
-        <v>171.9621733803005</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P6" t="n">
-        <v>138.0148045906967</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.25924187623772</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R6" t="n">
-        <v>44.87430689939601</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S6" t="n">
-        <v>13.42488624745281</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T6" t="n">
-        <v>2.913216165621991</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04754977419404777</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6059348274345319</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H7" t="n">
-        <v>5.387311465736115</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I7" t="n">
-        <v>18.22211281048575</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J7" t="n">
-        <v>42.8395922996214</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K7" t="n">
-        <v>70.39860995103014</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L7" t="n">
-        <v>90.08598334422123</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M7" t="n">
-        <v>94.98303844957847</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N7" t="n">
-        <v>92.72455409277711</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O7" t="n">
-        <v>85.6461336086555</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P7" t="n">
-        <v>73.28506312899098</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.73877904999522</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R7" t="n">
-        <v>27.24503324082903</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S7" t="n">
-        <v>10.55979149265452</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T7" t="n">
-        <v>2.588994262674817</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03305099058733814</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.409652496537027</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H8" t="n">
-        <v>14.43660363015983</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I8" t="n">
-        <v>54.34562787274376</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J8" t="n">
         <v>119.6424935779595</v>
@@ -31536,7 +31536,7 @@
         <v>247.5226439325573</v>
       </c>
       <c r="N8" t="n">
-        <v>251.5278190883432</v>
+        <v>251.5278190883431</v>
       </c>
       <c r="O8" t="n">
         <v>237.5105870759031</v>
@@ -31600,7 +31600,7 @@
         <v>7.284279536291656</v>
       </c>
       <c r="I9" t="n">
-        <v>25.96802650312875</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J9" t="n">
         <v>71.25824954189763</v>
@@ -31627,7 +31627,7 @@
         <v>96.27687176395656</v>
       </c>
       <c r="R9" t="n">
-        <v>46.82845645583321</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S9" t="n">
         <v>14.00950219627391</v>
@@ -31636,7 +31636,7 @@
         <v>3.040078516735708</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04962043280852629</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,7 +31673,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6323215809261379</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H10" t="n">
         <v>5.621913692234211</v>
@@ -31682,25 +31682,25 @@
         <v>19.0156344518515</v>
       </c>
       <c r="J10" t="n">
-        <v>44.70513577147795</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K10" t="n">
-        <v>73.46427094760037</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L10" t="n">
         <v>94.00897394969145</v>
       </c>
       <c r="M10" t="n">
-        <v>99.11928199917631</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N10" t="n">
-        <v>96.76244701572442</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O10" t="n">
         <v>89.37578127490541</v>
       </c>
       <c r="P10" t="n">
-        <v>76.47642102401214</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q10" t="n">
         <v>52.94830983555142</v>
@@ -32086,13 +32086,13 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M15" t="n">
-        <v>222.8398747259509</v>
+        <v>233.8199902598795</v>
       </c>
       <c r="N15" t="n">
-        <v>207.056104036874</v>
+        <v>218.0362195708026</v>
       </c>
       <c r="O15" t="n">
-        <v>223.515857614999</v>
+        <v>234.4959731489276</v>
       </c>
       <c r="P15" t="n">
         <v>190.8441275431999</v>
@@ -32323,10 +32323,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M18" t="n">
-        <v>237.1098912171571</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N18" t="n">
-        <v>221.3261205280803</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O18" t="n">
         <v>237.7858741062053</v>
@@ -32560,10 +32560,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M21" t="n">
-        <v>237.1098912171571</v>
+        <v>253.2285646600822</v>
       </c>
       <c r="N21" t="n">
-        <v>221.3261205280803</v>
+        <v>237.4447939710053</v>
       </c>
       <c r="O21" t="n">
         <v>237.7858741062053</v>
@@ -32703,7 +32703,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H23" t="n">
-        <v>19.12960795039465</v>
+        <v>19.12960795039466</v>
       </c>
       <c r="I23" t="n">
         <v>72.01212845185798</v>
@@ -32715,22 +32715,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L23" t="n">
-        <v>294.7682760045801</v>
+        <v>294.7682760045802</v>
       </c>
       <c r="M23" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N23" t="n">
-        <v>333.2936673363892</v>
+        <v>333.2936673363893</v>
       </c>
       <c r="O23" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P23" t="n">
-        <v>268.6060329819788</v>
+        <v>268.6060329819789</v>
       </c>
       <c r="Q23" t="n">
-        <v>201.7119443967466</v>
+        <v>201.7119443967467</v>
       </c>
       <c r="R23" t="n">
         <v>117.334332763479</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9994134108100873</v>
+        <v>0.9994134108100874</v>
       </c>
       <c r="H24" t="n">
-        <v>9.65222952019216</v>
+        <v>9.652229520192162</v>
       </c>
       <c r="I24" t="n">
-        <v>34.4096283985052</v>
+        <v>34.40962839850521</v>
       </c>
       <c r="J24" t="n">
-        <v>94.42265036078987</v>
+        <v>94.42265036078989</v>
       </c>
       <c r="K24" t="n">
         <v>161.3833488850657</v>
@@ -32800,7 +32800,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N24" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O24" t="n">
         <v>237.7858741062053</v>
@@ -32812,16 +32812,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R24" t="n">
-        <v>62.05129931327895</v>
+        <v>62.05129931327896</v>
       </c>
       <c r="S24" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T24" t="n">
-        <v>4.028337388309078</v>
+        <v>4.028337388309079</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06575088229013734</v>
+        <v>0.06575088229013736</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,16 +32861,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H25" t="n">
-        <v>7.449467175140939</v>
+        <v>7.44946717514094</v>
       </c>
       <c r="I25" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J25" t="n">
-        <v>59.23773642236303</v>
+        <v>59.23773642236304</v>
       </c>
       <c r="K25" t="n">
-        <v>97.34579805552261</v>
+        <v>97.34579805552262</v>
       </c>
       <c r="L25" t="n">
         <v>124.569106525823</v>
@@ -32888,10 +32888,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.16057479572919</v>
+        <v>70.1605747957292</v>
       </c>
       <c r="R25" t="n">
-        <v>37.67389023338144</v>
+        <v>37.67389023338145</v>
       </c>
       <c r="S25" t="n">
         <v>14.60186970832839</v>
@@ -32900,7 +32900,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04570225260822664</v>
+        <v>0.04570225260822665</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33037,7 +33037,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N27" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O27" t="n">
         <v>237.7858741062053</v>
@@ -33177,7 +33177,7 @@
         <v>1.867897761542258</v>
       </c>
       <c r="H29" t="n">
-        <v>19.12960795039466</v>
+        <v>19.12960795039465</v>
       </c>
       <c r="I29" t="n">
         <v>72.01212845185798</v>
@@ -33189,22 +33189,22 @@
         <v>237.6035998847812</v>
       </c>
       <c r="L29" t="n">
-        <v>294.7682760045802</v>
+        <v>294.7682760045801</v>
       </c>
       <c r="M29" t="n">
         <v>327.9865028214073</v>
       </c>
       <c r="N29" t="n">
-        <v>333.2936673363893</v>
+        <v>333.2936673363892</v>
       </c>
       <c r="O29" t="n">
         <v>314.7197589700534</v>
       </c>
       <c r="P29" t="n">
-        <v>268.6060329819789</v>
+        <v>268.6060329819788</v>
       </c>
       <c r="Q29" t="n">
-        <v>201.7119443967467</v>
+        <v>201.7119443967466</v>
       </c>
       <c r="R29" t="n">
         <v>117.334332763479</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9994134108100874</v>
+        <v>0.9994134108100873</v>
       </c>
       <c r="H30" t="n">
-        <v>9.652229520192162</v>
+        <v>9.65222952019216</v>
       </c>
       <c r="I30" t="n">
-        <v>34.40962839850521</v>
+        <v>34.4096283985052</v>
       </c>
       <c r="J30" t="n">
-        <v>94.42265036078989</v>
+        <v>94.42265036078987</v>
       </c>
       <c r="K30" t="n">
         <v>161.3833488850657</v>
@@ -33274,7 +33274,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N30" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O30" t="n">
         <v>237.7858741062053</v>
@@ -33286,16 +33286,16 @@
         <v>127.5742452114771</v>
       </c>
       <c r="R30" t="n">
-        <v>62.05129931327896</v>
+        <v>62.05129931327895</v>
       </c>
       <c r="S30" t="n">
         <v>18.56366576658209</v>
       </c>
       <c r="T30" t="n">
-        <v>4.028337388309079</v>
+        <v>4.028337388309078</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06575088229013736</v>
+        <v>0.06575088229013734</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,16 +33335,16 @@
         <v>0.8378746311508208</v>
       </c>
       <c r="H31" t="n">
-        <v>7.44946717514094</v>
+        <v>7.449467175140939</v>
       </c>
       <c r="I31" t="n">
         <v>25.1971752713356</v>
       </c>
       <c r="J31" t="n">
-        <v>59.23773642236304</v>
+        <v>59.23773642236303</v>
       </c>
       <c r="K31" t="n">
-        <v>97.34579805552262</v>
+        <v>97.34579805552261</v>
       </c>
       <c r="L31" t="n">
         <v>124.569106525823</v>
@@ -33362,10 +33362,10 @@
         <v>101.3371281166411</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.1605747957292</v>
+        <v>70.16057479572919</v>
       </c>
       <c r="R31" t="n">
-        <v>37.67389023338145</v>
+        <v>37.67389023338144</v>
       </c>
       <c r="S31" t="n">
         <v>14.60186970832839</v>
@@ -33374,7 +33374,7 @@
         <v>3.580009787644415</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04570225260822665</v>
+        <v>0.04570225260822664</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33511,7 +33511,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N33" t="n">
-        <v>252.4136440860044</v>
+        <v>259.9307712615235</v>
       </c>
       <c r="O33" t="n">
         <v>237.7858741062053</v>
@@ -33748,7 +33748,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N36" t="n">
-        <v>237.4447939710053</v>
+        <v>252.8244861242316</v>
       </c>
       <c r="O36" t="n">
         <v>237.7858741062053</v>
@@ -33985,7 +33985,7 @@
         <v>253.2285646600822</v>
       </c>
       <c r="N39" t="n">
-        <v>237.4447939710053</v>
+        <v>241.844370590303</v>
       </c>
       <c r="O39" t="n">
         <v>237.7858741062053</v>
@@ -34219,10 +34219,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M42" t="n">
-        <v>238.9585481688759</v>
+        <v>238.2195668791772</v>
       </c>
       <c r="N42" t="n">
-        <v>223.1747774797991</v>
+        <v>222.4357961901003</v>
       </c>
       <c r="O42" t="n">
         <v>237.7858741062053</v>
@@ -34456,10 +34456,10 @@
         <v>216.9998285182166</v>
       </c>
       <c r="M45" t="n">
-        <v>238.9585481688759</v>
+        <v>238.2195668791772</v>
       </c>
       <c r="N45" t="n">
-        <v>223.1747774797991</v>
+        <v>222.4357961901003</v>
       </c>
       <c r="O45" t="n">
         <v>237.7858741062053</v>
@@ -35421,10 +35421,10 @@
         <v>14.96885011499904</v>
       </c>
       <c r="N11" t="n">
+        <v>14.96885011499904</v>
+      </c>
+      <c r="O11" t="n">
         <v>0.2686072756679088</v>
-      </c>
-      <c r="O11" t="n">
-        <v>14.96885011499904</v>
       </c>
       <c r="P11" t="n">
         <v>14.09544081448269</v>
@@ -35652,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>14.96885011499904</v>
+        <v>10.80508177792263</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2686072756679088</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="N14" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="O14" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="P14" t="n">
         <v>14.09544081448269</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>14.36404809015059</v>
+        <v>24.90052259240532</v>
       </c>
       <c r="M15" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="N15" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="O15" t="n">
-        <v>14.96885011499904</v>
+        <v>25.94896564892766</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M17" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N17" t="n">
-        <v>28.05749825847984</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O17" t="n">
-        <v>29.23886660620531</v>
+        <v>29.42947135387475</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>28.05749825847984</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N18" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O18" t="n">
-        <v>29.23886660620531</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="M20" t="n">
-        <v>13.96205744399715</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N20" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O20" t="n">
-        <v>29.23886660620531</v>
+        <v>43.52491216835742</v>
       </c>
       <c r="P20" t="n">
-        <v>14.09544081448269</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>28.05749825847984</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="N21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="O21" t="n">
-        <v>29.23886660620531</v>
+        <v>45.35754004913036</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.16086407820682</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36363,19 +36363,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>43.79351944402541</v>
+        <v>58.55180989409092</v>
       </c>
       <c r="M23" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735575</v>
       </c>
       <c r="N23" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O23" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P23" t="n">
-        <v>14.09544081448263</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>14.36404809015056</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M24" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N24" t="n">
-        <v>60.32639016412941</v>
+        <v>72.64725070857367</v>
       </c>
       <c r="O24" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P24" t="n">
-        <v>43.52491216835745</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M26" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N26" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O26" t="n">
-        <v>45.56809971406381</v>
+        <v>75.70608231735577</v>
       </c>
       <c r="P26" t="n">
         <v>14.09544081448269</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>29.33775425017184</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M27" t="n">
-        <v>60.32639016412941</v>
+        <v>51.27094908007548</v>
       </c>
       <c r="N27" t="n">
-        <v>60.32639016412941</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O27" t="n">
-        <v>60.32639016412941</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36837,19 +36837,19 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>43.79351944402535</v>
+        <v>58.55180989409087</v>
       </c>
       <c r="M29" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N29" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O29" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735588</v>
       </c>
       <c r="P29" t="n">
-        <v>14.09544081448269</v>
+        <v>14.09544081448263</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>28.55120600833618</v>
+        <v>28.55120600833615</v>
       </c>
       <c r="L30" t="n">
-        <v>14.36404809015059</v>
+        <v>51.95860967794465</v>
       </c>
       <c r="M30" t="n">
-        <v>45.35754004913036</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N30" t="n">
-        <v>60.32639016412941</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O30" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P30" t="n">
-        <v>29.94255627502028</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37077,16 +37077,16 @@
         <v>58.55180989409092</v>
       </c>
       <c r="M32" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N32" t="n">
-        <v>59.66354052854651</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="O32" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>14.09544081448269</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,16 +37153,16 @@
         <v>28.55120600833618</v>
       </c>
       <c r="L33" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="M33" t="n">
-        <v>60.32639016412941</v>
+        <v>75.70608231735571</v>
       </c>
       <c r="N33" t="n">
-        <v>60.32639016412941</v>
+        <v>67.84351733964857</v>
       </c>
       <c r="O33" t="n">
-        <v>29.33775425017184</v>
+        <v>51.95860967794462</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>45.35754004913036</v>
+        <v>44.18776180394038</v>
       </c>
       <c r="M35" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="N35" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="O35" t="n">
-        <v>29.42947135387475</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="P35" t="n">
         <v>14.09544081448269</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>28.55120600833618</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>31.09237960294628</v>
+        <v>44.42402816544407</v>
       </c>
       <c r="M36" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N36" t="n">
-        <v>45.35754004913036</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="O36" t="n">
         <v>29.23886660620531</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>60.73723220235667</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="M38" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="N38" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="O38" t="n">
-        <v>29.42947135387475</v>
+        <v>33.65128730168564</v>
       </c>
       <c r="P38" t="n">
         <v>14.09544081448269</v>
@@ -37627,16 +37627,16 @@
         <v>28.55120600833618</v>
       </c>
       <c r="L39" t="n">
-        <v>14.97370616002124</v>
+        <v>23.59509872712982</v>
       </c>
       <c r="M39" t="n">
         <v>45.35754004913036</v>
       </c>
       <c r="N39" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="O39" t="n">
-        <v>45.35754004913036</v>
+        <v>49.75711666842804</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="M41" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N41" t="n">
-        <v>15.73602118554549</v>
+        <v>15.02689772573354</v>
       </c>
       <c r="O41" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="P41" t="n">
         <v>14.09544081448269</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>15.86796611208567</v>
       </c>
       <c r="L42" t="n">
-        <v>31.0875235579241</v>
+        <v>14.36404809015059</v>
       </c>
       <c r="M42" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N42" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="O42" t="n">
-        <v>29.83146200002818</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="M44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N44" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="O44" t="n">
-        <v>15.73602118554549</v>
+        <v>15.02689772573354</v>
       </c>
       <c r="P44" t="n">
         <v>14.09544081448269</v>
@@ -38101,16 +38101,16 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>31.0875235579241</v>
+        <v>30.23201420223626</v>
       </c>
       <c r="M45" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="N45" t="n">
-        <v>31.0875235579241</v>
+        <v>30.34854226822534</v>
       </c>
       <c r="O45" t="n">
-        <v>29.83146200002818</v>
+        <v>29.23886660620531</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
